--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동현\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\byh\java\NoDoubt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,14 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoomID : int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomID : int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JoinRoomResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Value : Boolean, Room : Room Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuitRoomRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoomID : int, Name : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AddRoomReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoomID : int, RoomMemeberCount : int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoomID : int, TargetName : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KickRoomReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,20 +246,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoomID : int, TargetName : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BanRoomReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MasterName : String, RoomName : String, 
-Password: String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -385,7 +352,7 @@
   </si>
   <si>
     <t>1 대 1
-(서버)</t>
+(클라이언트)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,11 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 대 1
-(클라이언트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 대 N
 (멤버 -&gt; 클라이언트 제외)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,13 +373,99 @@
   <si>
     <t>1 대 N
 (로비의 클라이언트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID : double, Name : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID : double, RoomMemeberCount : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID : double, TargetName : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room : Room Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MasterID : String, RoomName : String, 
+Password: String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 대 1
+(서버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 대 1
+(서버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 대 1
+(서버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : String, Password : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value : boolean, User : User Object,
+ RoomManager : RoomManager Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 대 N
+(같은 방에 속한 클라이언트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User : User Object, RoomID : double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User : User Object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -793,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -810,22 +858,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -833,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -853,16 +901,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -870,321 +918,361 @@
     </row>
     <row r="4" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\byh\java\NoDoubt\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QSS\No Doubt\NoDoubt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,6 +459,22 @@
   </si>
   <si>
     <t>User : User Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 구현상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 구현상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중(김경민)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,6 +548,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -854,9 +873,11 @@
     <col min="3" max="4" width="24.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.69921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -875,8 +896,14 @@
       <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="G1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,8 +922,11 @@
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="H2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -916,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -936,7 +966,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
@@ -956,7 +986,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -975,8 +1005,11 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -996,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1056,7 +1089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1076,7 +1109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1116,7 +1149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1136,7 +1169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1156,7 +1189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +36,6 @@
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomListRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -414,32 +411,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>로그인 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1 대 1
 (서버)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 대 1
-(서버)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID : String, Password : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,6 +467,204 @@
   </si>
   <si>
     <t>구현중(김경민)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player : ID(String)
+Value : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 순서 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List : ID Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeclareReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 결과 선언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeclareRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : N-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선언 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심 선언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player : ID(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubtReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심 결과 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 이동 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubtRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player : ID(String)
+Result : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubtCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심 결과 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubtCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubtResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubtReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심 결과 보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 구현상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomListRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameEndReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료 보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plyaer : ID(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player : ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝 선언 이후 Declare로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PushRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸시 선언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PushReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝 선언 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : N-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸시 선언 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plyaer  : ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +741,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -879,28 +1072,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -908,39 +1101,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -948,182 +1141,182 @@
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
@@ -1131,179 +1324,179 @@
     </row>
     <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>2</v>
@@ -1314,4 +1507,1032 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="31.3984375" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="20.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="153">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,18 +472,6 @@
   <si>
     <t>Player : ID(String)
 Value : int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 진행 순서 공지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List : ID Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1055,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1181,7 +1169,7 @@
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
@@ -1514,7 +1502,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1552,24 +1540,24 @@
         <v>103</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>59</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
+      <c r="E2" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1577,16 +1565,16 @@
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>116</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>107</v>
@@ -1595,165 +1583,165 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1761,53 +1749,33 @@
         <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3504" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3504"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="154">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,10 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구현중(김경민)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Player : ID(String)
 Value : int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +649,13 @@
   </si>
   <si>
     <t>Plyaer  : ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1104,7 +1107,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1126,6 +1129,9 @@
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -1146,6 +1152,9 @@
       <c r="F4" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1166,10 +1175,13 @@
       <c r="F5" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
@@ -1501,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1540,24 +1552,24 @@
         <v>103</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1565,19 +1577,19 @@
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1585,83 +1597,83 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1669,19 +1681,19 @@
     </row>
     <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1689,93 +1701,93 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="155">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,10 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>말 이동 공지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 : N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,6 +652,16 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 이동 공지
+(DeclareReport이후 5초간 진행)
+한명이라도 의심을 성공하는 사람이 있다면 안보내도 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1046,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1107,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1130,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1153,7 +1159,7 @@
         <v>95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1176,12 +1182,12 @@
         <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
@@ -1513,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1552,7 +1558,7 @@
         <v>103</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1573,7 +1579,9 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -1593,11 +1601,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
@@ -1612,49 +1622,49 @@
         <v>116</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1673,13 +1683,13 @@
         <v>118</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -1687,107 +1697,105 @@
         <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="D8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="156">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,6 +658,10 @@
     <t>말 이동 공지
 (DeclareReport이후 5초간 진행)
 한명이라도 의심을 성공하는 사람이 있다면 안보내도 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1053,7 +1057,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1520,7 +1524,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1625,7 +1629,9 @@
         <v>127</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="156">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1651,7 +1651,9 @@
         <v>128</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -1673,7 +1675,9 @@
         <v>129</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -655,17 +655,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>말 이동 공지
-(DeclareReport이후 5초간 진행)
+(DeclareReport의 5초 이후 보냄)
 한명이라도 의심을 성공하는 사람이 있다면 안보내도 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1584,7 +1584,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1606,7 +1606,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1710,7 +1710,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,10 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Player : ID(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DoubtReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,10 +584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plyaer : ID(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StepRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,10 +596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Player : ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스텝 선언 이후 Declare로 넘어감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,28 +632,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plyaer  : ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
   </si>
   <si>
     <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>말 이동 공지
 (DeclareReport의 5초 이후 보냄)
 한명이라도 의심을 성공하는 사람이 있다면 안보내도 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID : Double
+Player : ID(String)
+Value : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID : Double
+Player : ID(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID : Double
+Player : ID(String)
+Result : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID : Double
+Player : ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID : Double
+Player  : ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID : Double
+Player : ID(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1140,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1163,7 +1179,7 @@
         <v>95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1186,12 +1202,12 @@
         <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
@@ -1524,7 +1540,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1562,10 +1578,10 @@
         <v>103</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -1579,12 +1595,12 @@
         <v>108</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1606,12 +1622,12 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
@@ -1623,65 +1639,65 @@
         <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
@@ -1690,10 +1706,10 @@
         <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1701,111 +1717,111 @@
     </row>
     <row r="8" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QSS\No Doubt\NoDoubt\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Documents\GitHub\NoDoubt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="162">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,6 +682,22 @@
   </si>
   <si>
     <t>구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1132,6 +1148,9 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>148</v>
       </c>
@@ -1155,6 +1174,9 @@
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>147</v>
       </c>
@@ -1178,6 +1200,9 @@
       <c r="F4" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>147</v>
       </c>
@@ -1201,6 +1226,9 @@
       <c r="F5" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>147</v>
       </c>
@@ -1267,6 +1295,9 @@
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -1287,6 +1318,9 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -1307,6 +1341,9 @@
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
@@ -1327,6 +1364,9 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -1347,6 +1387,9 @@
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
@@ -1367,6 +1410,9 @@
       <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -1387,6 +1433,9 @@
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -1428,7 +1477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1447,8 +1496,11 @@
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="G17" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1467,8 +1519,11 @@
       <c r="F18" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="G18" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1487,8 +1542,11 @@
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="G19" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1508,7 +1566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -1540,7 +1598,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Documents\GitHub\NoDoubt\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ide\eclipse\NoDoubt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3504" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3504"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Room : Room Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MasterID : String, RoomName : String, 
 Password: String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,13 +694,17 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value: Boolean, Room : Room Object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1123,10 +1123,10 @@
         <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1149,10 +1149,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1175,67 +1175,67 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
@@ -1253,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1290,13 +1290,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1313,13 +1313,13 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1342,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1359,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1376,19 +1376,19 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1411,7 +1411,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1434,7 +1434,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1497,7 +1497,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1520,7 +1520,7 @@
         <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1543,7 +1543,7 @@
         <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1633,141 +1633,141 @@
         <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="8" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -1793,93 +1793,93 @@
     </row>
     <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ide\eclipse\NoDoubt\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QSS\No Doubt\NoDoubt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,11 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Player : ID(String)
-Value : int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DeclareReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,10 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스텝 선언 이후 Declare로 넘어감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PushRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,79 +624,88 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID : Double
+Player : ID(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value: Boolean, Room : Room Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target : ID(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result : boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>말 이동 공지
 (DeclareReport의 5초 이후 보냄)
-한명이라도 의심을 성공하는 사람이 있다면 안보내도 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomID : Double
-Player : ID(String)
-Value : int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomID : Double
-Player : ID(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomID : Double
-Player : ID(String)
-Result : boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomID : Double
-Player : ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomID : Double
-Player  : ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomID : Double
-Player : ID(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value: Boolean, Room : Room Object</t>
+한명이라도 의심을 성공하는 사람이 있다면 안보내도 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝 선언 이후 Declare로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player : ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player  : ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnEndRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 종료 알림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1088,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1149,10 +1150,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1175,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1201,10 +1202,10 @@
         <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1227,15 +1228,15 @@
         <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
@@ -1296,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1313,13 +1314,13 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1342,7 +1343,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1365,7 +1366,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1388,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1411,7 +1412,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1434,7 +1435,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1497,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1520,7 +1521,7 @@
         <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1543,7 +1544,7 @@
         <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1597,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1636,138 +1637,138 @@
         <v>102</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1775,111 +1776,121 @@
     </row>
     <row r="8" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>154</v>
+      <c r="E14" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="164">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,10 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 : N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DoubtRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,11 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoomID : Double
-Player : ID(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구현중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,12 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>말 이동 공지
-(DeclareReport의 5초 이후 보냄)
-한명이라도 의심을 성공하는 사람이 있다면 안보내도 됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스텝 선언 이후 Declare로 넘어감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,6 +683,18 @@
   </si>
   <si>
     <t>턴 종료 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 이동 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameEndRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1176,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1202,10 +1198,10 @@
         <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1228,15 +1224,15 @@
         <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
@@ -1297,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1314,13 +1310,13 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1343,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1366,7 +1362,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1389,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1412,7 +1408,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1435,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1498,7 +1494,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1521,7 +1517,7 @@
         <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1544,7 +1540,7 @@
         <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1599,7 +1595,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1637,7 +1633,7 @@
         <v>102</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1654,12 +1650,12 @@
         <v>106</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1676,17 +1672,17 @@
         <v>111</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
@@ -1698,60 +1694,60 @@
         <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1768,24 +1764,24 @@
         <v>115</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -1794,122 +1790,135 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>109</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>161</v>
+        <v>136</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QSS\No Doubt\NoDoubt\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Documents\GitHub\NoDoubt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="168">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -695,6 +695,22 @@
   </si>
   <si>
     <t>GameEndRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1595,7 +1611,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1768,7 +1784,9 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
@@ -1786,7 +1804,9 @@
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -1804,7 +1824,9 @@
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -1823,6 +1845,9 @@
       <c r="F10" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
@@ -1840,6 +1865,9 @@
       <c r="E11" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -1858,6 +1886,9 @@
       <c r="F12" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
@@ -1875,6 +1906,9 @@
       <c r="E13" s="3" t="s">
         <v>158</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -1889,6 +1923,9 @@
       <c r="D14" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -1904,6 +1941,9 @@
         <v>131</v>
       </c>
       <c r="E15" s="3"/>
+      <c r="H15" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
@@ -1920,7 +1960,9 @@
       </c>
       <c r="E16" s="3"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Documents\GitHub\NoDoubt\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QSS\No Doubt\NoDoubt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="166">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,91 +626,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value: Boolean, Room : Room Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target : ID(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝 선언 이후 Declare로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player : ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player  : ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnEndRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 종료 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 이동 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameEndRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>구현중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value: Boolean, Room : Room Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value : int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value : int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target : ID(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result : boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텝 선언 이후 Declare로 넘어감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player : ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player  : ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TurnEndRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턴 종료 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말 이동 공지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameEndRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구현중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구현중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현중</t>
+    <t>구현 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>144</v>
@@ -1188,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>143</v>
@@ -1214,7 +1206,7 @@
         <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>143</v>
@@ -1240,7 +1232,7 @@
         <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>143</v>
@@ -1309,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1326,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1355,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1378,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1401,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1424,7 +1416,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1447,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1510,7 +1502,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1533,7 +1525,7 @@
         <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1556,7 +1548,7 @@
         <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1611,7 +1603,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1666,12 +1658,12 @@
         <v>106</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1688,12 +1680,12 @@
         <v>111</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1710,14 +1702,14 @@
         <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1739,7 +1731,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1756,14 +1748,14 @@
         <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>125</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1785,12 +1777,12 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>126</v>
@@ -1799,7 +1791,7 @@
         <v>110</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -1819,13 +1811,13 @@
         <v>109</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1839,14 +1831,14 @@
         <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>137</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1863,7 +1855,7 @@
         <v>140</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>145</v>
@@ -1887,7 +1879,7 @@
         <v>138</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1904,15 +1896,15 @@
         <v>142</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>59</v>
@@ -1921,15 +1913,15 @@
         <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>126</v>
@@ -1961,7 +1953,7 @@
       <c r="E16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="175">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,11 +698,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구현중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 완료</t>
+  </si>
+  <si>
+    <t>InitializeRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitializeReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : N-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화 선언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player : ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1603,7 +1638,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1646,224 +1681,223 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>110</v>
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>112</v>
+      <c r="C4" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>155</v>
+        <v>110</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="D11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>133</v>
@@ -1872,109 +1906,130 @@
         <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="H17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="3"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>

--- a/doc/프로토콜_명세.xlsx
+++ b/doc/프로토콜_명세.xlsx
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
